--- a/SalaryCalc/Files/Sample.xlsx
+++ b/SalaryCalc/Files/Sample.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Qiymət</t>
   </si>
   <si>
-    <t>Ad</t>
-  </si>
-  <si>
     <t>Tarix</t>
   </si>
   <si>
@@ -73,6 +70,12 @@
   </si>
   <si>
     <t>Sayı</t>
+  </si>
+  <si>
+    <t>PinKod</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ad</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,35 +452,37 @@
     <col min="1" max="1" width="38.140625" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="4" max="5" width="22" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="3">
         <v>11</v>
@@ -485,121 +490,127 @@
       <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
         <v>33910</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="D3" s="1">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2">
         <v>33910</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
         <v>12</v>
       </c>
       <c r="C4" s="1">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2">
+        <v>43.78</v>
+      </c>
+      <c r="D4" s="1">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2">
         <v>33910</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H5" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G6" s="5" t="s">
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G7" s="5" t="s">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G9" s="5" t="s">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G10" s="5" t="s">
+    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G11" s="5" t="s">
+    </row>
+    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G12" s="5" t="s">
+    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G13" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F14" s="5"/>
+    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G14" s="5"/>
     </row>
     <row r="18" spans="11:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K18" s="5"/>
